--- a/excel_spreadsheet.xlsx
+++ b/excel_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\greg\git\FoEGBCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{026371FC-A9A6-4C9D-B203-B22A1D1E2F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB2DDA3-E0E7-48F8-A1B0-2920BE8113C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="3800" windowWidth="18720" windowHeight="11740" xr2:uid="{77E4BA37-A6E2-4BA1-B71B-0D7DD3B31C71}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>arc</t>
   </si>
@@ -57,34 +57,13 @@
     <t>balance</t>
   </si>
   <si>
-    <t>Forge of Empires Great Building level calculator</t>
-  </si>
-  <si>
-    <t>Tells how many FP to add to secure slots.</t>
-  </si>
-  <si>
-    <t>To add another building:</t>
-  </si>
-  <si>
-    <t>* copy the block of cells to a new block</t>
-  </si>
-  <si>
     <t>1.9 cost to buy the slot</t>
   </si>
   <si>
-    <t>To configure a new level, set the "total cost /slot" and the "rewards" FP for each slot.</t>
-  </si>
-  <si>
     <t>add FP to secure</t>
   </si>
   <si>
-    <t>If "add FP to secure" = 0, the slot is insecure, so plan for friends to take those slots quickly.</t>
-  </si>
-  <si>
-    <t>** In the example, the "balance" formula for slots 1-5 reference $B$15.</t>
-  </si>
-  <si>
-    <t>* Configure the "balance" formula for each slot column by setting the cell reference to the "total cost / slot #" cell.</t>
+    <t>CdM</t>
   </si>
 </sst>
 </file>
@@ -452,51 +431,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>6031</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1455</v>
+      </c>
+      <c r="D5">
+        <v>730</v>
+      </c>
+      <c r="E5">
+        <v>245</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <f>ROUND(1.9*C5,0)</f>
+        <v>2765</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:G6" si="0">ROUND(1.9*D5,0)</f>
+        <v>1387</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>466</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>B7+C6</f>
+        <v>2765</v>
+      </c>
+      <c r="D7">
+        <f>C7+D6</f>
+        <v>4152</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:G7" si="1">D7+E6</f>
+        <v>4618</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4732</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:D8" si="2">IF(B11&gt;C6*2, B11-C6*2,0)</f>
+        <v>501</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>IF(D11&gt;E6*2, D11-E6*2,0)</f>
+        <v>446</v>
+      </c>
+      <c r="F8">
+        <f>IF(E11&gt;F6*2, E11-F6*2,0)</f>
+        <v>238</v>
+      </c>
+      <c r="G8">
+        <f>IF(F11&gt;G6*2, F11-G6*2,0)</f>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <f>B9+C8</f>
+        <v>501</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:G9" si="3">C9+D8</f>
+        <v>501</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>947</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>1185</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>1261</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f>C7+C9</f>
+        <v>3266</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:G10" si="4">D7+D9</f>
+        <v>4653</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>5565</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>5917</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>6012</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <f>B4</f>
+        <v>6031</v>
+      </c>
+      <c r="C11">
+        <f>$B$4-C10</f>
+        <v>2765</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:G11" si="5">$B$4-D10</f>
+        <v>1378</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>466</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -504,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>6031</v>
+        <v>812</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -527,44 +671,44 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>1455</v>
+        <v>125</v>
       </c>
       <c r="D16">
-        <v>730</v>
+        <v>65</v>
       </c>
       <c r="E16">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="F16">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <f>ROUND(1.9*C16,0)</f>
-        <v>2765</v>
+        <v>238</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:G17" si="0">ROUND(1.9*D16,0)</f>
-        <v>1387</v>
+        <f t="shared" ref="D17:G17" si="6">ROUND(1.9*D16,0)</f>
+        <v>124</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>466</v>
+        <f t="shared" si="6"/>
+        <v>38</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>114</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -573,48 +717,48 @@
       </c>
       <c r="C18">
         <f>B18+C17</f>
-        <v>2765</v>
+        <v>238</v>
       </c>
       <c r="D18">
         <f>C18+D17</f>
-        <v>4152</v>
+        <v>362</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:G18" si="1">D18+E17</f>
-        <v>4618</v>
+        <f t="shared" ref="E18" si="7">D18+E17</f>
+        <v>400</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>4732</v>
+        <f t="shared" ref="F18" si="8">E18+F17</f>
+        <v>410</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>4751</v>
+        <f t="shared" ref="G18" si="9">F18+G17</f>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:D19" si="2">IF(B22&gt;C17*2, B22-C17*2,0)</f>
-        <v>501</v>
+        <f t="shared" ref="C19" si="10">IF(B22&gt;C17*2, B22-C17*2,0)</f>
+        <v>336</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D19" si="11">IF(C22&gt;D17*2, C22-D17*2,0)</f>
         <v>0</v>
       </c>
       <c r="E19">
         <f>IF(D22&gt;E17*2, D22-E17*2,0)</f>
-        <v>446</v>
+        <v>5257</v>
       </c>
       <c r="F19">
         <f>IF(E22&gt;F17*2, E22-F17*2,0)</f>
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <f>IF(F22&gt;G17*2, F22-G17*2,0)</f>
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -623,23 +767,23 @@
       </c>
       <c r="C20">
         <f>B20+C19</f>
-        <v>501</v>
+        <v>336</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:G20" si="3">C20+D19</f>
-        <v>501</v>
+        <f t="shared" ref="D20" si="12">C20+D19</f>
+        <v>336</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
-        <v>947</v>
+        <f t="shared" ref="E20" si="13">D20+E19</f>
+        <v>5593</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
-        <v>1185</v>
+        <f t="shared" ref="F20" si="14">E20+F19</f>
+        <v>5611</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
-        <v>1261</v>
+        <f t="shared" ref="G20" si="15">F20+G19</f>
+        <v>5621</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -648,23 +792,23 @@
       </c>
       <c r="C21">
         <f>C18+C20</f>
-        <v>3266</v>
+        <v>574</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:G21" si="4">D18+D20</f>
-        <v>4653</v>
+        <f t="shared" ref="D21:G21" si="16">D18+D20</f>
+        <v>698</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
-        <v>5565</v>
+        <f t="shared" si="16"/>
+        <v>5993</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
-        <v>5917</v>
+        <f t="shared" si="16"/>
+        <v>6021</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
-        <v>6012</v>
+        <f t="shared" si="16"/>
+        <v>6031</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -673,27 +817,27 @@
       </c>
       <c r="B22">
         <f>B15</f>
-        <v>6031</v>
+        <v>812</v>
       </c>
       <c r="C22">
         <f>$B$15-C21</f>
-        <v>2765</v>
+        <v>238</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:G22" si="5">$B$15-D21</f>
-        <v>1378</v>
+        <f t="shared" ref="D22:G22" si="17">$B$4-D21</f>
+        <v>5333</v>
       </c>
       <c r="E22">
-        <f t="shared" si="5"/>
-        <v>466</v>
+        <f t="shared" si="17"/>
+        <v>38</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
-        <v>114</v>
+        <f t="shared" si="17"/>
+        <v>10</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
